--- a/12/4/Precios 1948 a 2021 - Mensual.xlsx
+++ b/12/4/Precios 1948 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="895">
   <si>
     <t>Serie</t>
   </si>
@@ -2696,6 +2696,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -3053,7 +3056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K884"/>
+  <dimension ref="A1:K885"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21083,7 +21086,7 @@
         <v>119.13</v>
       </c>
       <c r="G873">
-        <v>2.293</v>
+        <v>2.302</v>
       </c>
       <c r="H873">
         <v>291.122</v>
@@ -21095,7 +21098,7 @@
         <v>42.36</v>
       </c>
       <c r="K873">
-        <v>50.56</v>
+        <v>50.585</v>
       </c>
     </row>
     <row r="874" spans="1:11">
@@ -21130,7 +21133,7 @@
         <v>39.6</v>
       </c>
       <c r="K874">
-        <v>49.387</v>
+        <v>49.412</v>
       </c>
     </row>
     <row r="875" spans="1:11">
@@ -21153,7 +21156,7 @@
         <v>111.15</v>
       </c>
       <c r="G875">
-        <v>2.169</v>
+        <v>2.247</v>
       </c>
       <c r="H875">
         <v>267.238</v>
@@ -21165,7 +21168,7 @@
         <v>39.53</v>
       </c>
       <c r="K875">
-        <v>52.506</v>
+        <v>52.519</v>
       </c>
     </row>
     <row r="876" spans="1:11">
@@ -21188,7 +21191,7 @@
         <v>121.39</v>
       </c>
       <c r="G876">
-        <v>2.61</v>
+        <v>2.588</v>
       </c>
       <c r="H876">
         <v>291.465</v>
@@ -21200,7 +21203,7 @@
         <v>41.1</v>
       </c>
       <c r="K876">
-        <v>54.66399999999999</v>
+        <v>54.642</v>
       </c>
     </row>
     <row r="877" spans="1:11">
@@ -21223,7 +21226,7 @@
         <v>140.29</v>
       </c>
       <c r="G877">
-        <v>2.529</v>
+        <v>2.539</v>
       </c>
       <c r="H877">
         <v>343.962</v>
@@ -21235,7 +21238,7 @@
         <v>47.05</v>
       </c>
       <c r="K877">
-        <v>64.542</v>
+        <v>64.01899999999999</v>
       </c>
     </row>
     <row r="878" spans="1:11">
@@ -21258,7 +21261,7 @@
         <v>152.54</v>
       </c>
       <c r="G878">
-        <v>2.485</v>
+        <v>2.666</v>
       </c>
       <c r="H878">
         <v>367.344</v>
@@ -21270,7 +21273,7 @@
         <v>52.1</v>
       </c>
       <c r="K878">
-        <v>87.5</v>
+        <v>87.554</v>
       </c>
     </row>
     <row r="879" spans="1:11">
@@ -21293,7 +21296,7 @@
         <v>174.28</v>
       </c>
       <c r="G879">
-        <v>5.183</v>
+        <v>5.065</v>
       </c>
       <c r="H879">
         <v>409.986</v>
@@ -21305,7 +21308,7 @@
         <v>59.06</v>
       </c>
       <c r="K879">
-        <v>90.819</v>
+        <v>91.41500000000001</v>
       </c>
     </row>
     <row r="880" spans="1:11">
@@ -21328,7 +21331,7 @@
         <v>182.41</v>
       </c>
       <c r="G880">
-        <v>2.607</v>
+        <v>2.565</v>
       </c>
       <c r="H880">
         <v>426.049</v>
@@ -21340,7 +21343,7 @@
         <v>62.35</v>
       </c>
       <c r="K880">
-        <v>92.23899999999999</v>
+        <v>92.26799999999999</v>
       </c>
     </row>
     <row r="881" spans="1:11">
@@ -21375,7 +21378,7 @@
         <v>61.71</v>
       </c>
       <c r="K881">
-        <v>81.601</v>
+        <v>81.67399999999999</v>
       </c>
     </row>
     <row r="882" spans="1:11">
@@ -21398,7 +21401,7 @@
         <v>197.16</v>
       </c>
       <c r="G882">
-        <v>2.889</v>
+        <v>2.888</v>
       </c>
       <c r="H882">
         <v>446.921</v>
@@ -21410,7 +21413,7 @@
         <v>65.18000000000001</v>
       </c>
       <c r="K882">
-        <v>82.7</v>
+        <v>82.79000000000001</v>
       </c>
     </row>
     <row r="883" spans="1:11">
@@ -21433,7 +21436,7 @@
         <v>206.86</v>
       </c>
       <c r="G883">
-        <v>3.229</v>
+        <v>3.232</v>
       </c>
       <c r="H883">
         <v>467.475</v>
@@ -21445,7 +21448,7 @@
         <v>71.38</v>
       </c>
       <c r="K883">
-        <v>97.182</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="884" spans="1:11">
@@ -21468,7 +21471,7 @@
         <v>207.23</v>
       </c>
       <c r="G884">
-        <v>3.783</v>
+        <v>3.804</v>
       </c>
       <c r="H884">
         <v>472.68</v>
@@ -21480,7 +21483,42 @@
         <v>72.45999999999999</v>
       </c>
       <c r="K884">
-        <v>109.292</v>
+        <v>109.3</v>
+      </c>
+    </row>
+    <row r="885" spans="1:11">
+      <c r="A885" t="s">
+        <v>894</v>
+      </c>
+      <c r="B885">
+        <v>573.922</v>
+      </c>
+      <c r="C885">
+        <v>1786.48</v>
+      </c>
+      <c r="D885">
+        <v>23.964</v>
+      </c>
+      <c r="E885">
+        <v>4.244</v>
+      </c>
+      <c r="F885">
+        <v>201.65</v>
+      </c>
+      <c r="G885">
+        <v>4.048999999999999</v>
+      </c>
+      <c r="H885">
+        <v>458.202</v>
+      </c>
+      <c r="I885">
+        <v>70.02</v>
+      </c>
+      <c r="J885">
+        <v>67.73</v>
+      </c>
+      <c r="K885">
+        <v>111.745</v>
       </c>
     </row>
   </sheetData>

--- a/12/4/Precios 1948 a 2021 - Mensual.xlsx
+++ b/12/4/Precios 1948 a 2021 - Mensual.xlsx
@@ -21121,7 +21121,7 @@
         <v>108.52</v>
       </c>
       <c r="G874">
-        <v>1.919</v>
+        <v>1.923</v>
       </c>
       <c r="H874">
         <v>258.546</v>
@@ -21156,7 +21156,7 @@
         <v>111.15</v>
       </c>
       <c r="G875">
-        <v>2.247</v>
+        <v>2.335</v>
       </c>
       <c r="H875">
         <v>267.238</v>
@@ -21191,7 +21191,7 @@
         <v>121.39</v>
       </c>
       <c r="G876">
-        <v>2.588</v>
+        <v>2.578</v>
       </c>
       <c r="H876">
         <v>291.465</v>
@@ -21226,7 +21226,7 @@
         <v>140.29</v>
       </c>
       <c r="G877">
-        <v>2.539</v>
+        <v>2.55</v>
       </c>
       <c r="H877">
         <v>343.962</v>
@@ -21296,7 +21296,7 @@
         <v>174.28</v>
       </c>
       <c r="G879">
-        <v>5.065</v>
+        <v>5.043</v>
       </c>
       <c r="H879">
         <v>409.986</v>
@@ -21366,7 +21366,7 @@
         <v>181.55</v>
       </c>
       <c r="G881">
-        <v>2.61</v>
+        <v>2.616</v>
       </c>
       <c r="H881">
         <v>415.005</v>
@@ -21401,7 +21401,7 @@
         <v>197.16</v>
       </c>
       <c r="G882">
-        <v>2.888</v>
+        <v>2.89</v>
       </c>
       <c r="H882">
         <v>446.921</v>
@@ -21436,7 +21436,7 @@
         <v>206.86</v>
       </c>
       <c r="G883">
-        <v>3.232</v>
+        <v>3.236</v>
       </c>
       <c r="H883">
         <v>467.475</v>
@@ -21471,7 +21471,7 @@
         <v>207.23</v>
       </c>
       <c r="G884">
-        <v>3.804</v>
+        <v>3.792</v>
       </c>
       <c r="H884">
         <v>472.68</v>
@@ -21506,7 +21506,7 @@
         <v>201.65</v>
       </c>
       <c r="G885">
-        <v>4.048999999999999</v>
+        <v>4.051</v>
       </c>
       <c r="H885">
         <v>458.202</v>

--- a/12/4/Precios 1948 a 2021 - Mensual.xlsx
+++ b/12/4/Precios 1948 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="896">
   <si>
     <t>Serie</t>
   </si>
@@ -2699,6 +2699,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -3056,7 +3059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K885"/>
+  <dimension ref="A1:K886"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21156,7 +21159,7 @@
         <v>111.15</v>
       </c>
       <c r="G875">
-        <v>2.335</v>
+        <v>2.247</v>
       </c>
       <c r="H875">
         <v>267.238</v>
@@ -21191,7 +21194,7 @@
         <v>121.39</v>
       </c>
       <c r="G876">
-        <v>2.578</v>
+        <v>2.588</v>
       </c>
       <c r="H876">
         <v>291.465</v>
@@ -21226,7 +21229,7 @@
         <v>140.29</v>
       </c>
       <c r="G877">
-        <v>2.55</v>
+        <v>2.539</v>
       </c>
       <c r="H877">
         <v>343.962</v>
@@ -21296,7 +21299,7 @@
         <v>174.28</v>
       </c>
       <c r="G879">
-        <v>5.043</v>
+        <v>5.065</v>
       </c>
       <c r="H879">
         <v>409.986</v>
@@ -21366,7 +21369,7 @@
         <v>181.55</v>
       </c>
       <c r="G881">
-        <v>2.616</v>
+        <v>2.61</v>
       </c>
       <c r="H881">
         <v>415.005</v>
@@ -21401,7 +21404,7 @@
         <v>197.16</v>
       </c>
       <c r="G882">
-        <v>2.89</v>
+        <v>2.888</v>
       </c>
       <c r="H882">
         <v>446.921</v>
@@ -21436,7 +21439,7 @@
         <v>206.86</v>
       </c>
       <c r="G883">
-        <v>3.236</v>
+        <v>3.232</v>
       </c>
       <c r="H883">
         <v>467.475</v>
@@ -21471,7 +21474,7 @@
         <v>207.23</v>
       </c>
       <c r="G884">
-        <v>3.792</v>
+        <v>3.804</v>
       </c>
       <c r="H884">
         <v>472.68</v>
@@ -21506,7 +21509,7 @@
         <v>201.65</v>
       </c>
       <c r="G885">
-        <v>4.051</v>
+        <v>4.048999999999999</v>
       </c>
       <c r="H885">
         <v>458.202</v>
@@ -21519,6 +21522,41 @@
       </c>
       <c r="K885">
         <v>111.745</v>
+      </c>
+    </row>
+    <row r="886" spans="1:11">
+      <c r="A886" t="s">
+        <v>895</v>
+      </c>
+      <c r="B886">
+        <v>576.299</v>
+      </c>
+      <c r="C886">
+        <v>1777.65</v>
+      </c>
+      <c r="D886">
+        <v>23.246</v>
+      </c>
+      <c r="E886">
+        <v>4.229</v>
+      </c>
+      <c r="F886">
+        <v>215.16</v>
+      </c>
+      <c r="G886">
+        <v>5.111000000000001</v>
+      </c>
+      <c r="H886">
+        <v>509.14</v>
+      </c>
+      <c r="I886">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J886">
+        <v>71.56</v>
+      </c>
+      <c r="K886">
+        <v>129.243</v>
       </c>
     </row>
   </sheetData>

--- a/12/4/Precios 1948 a 2021 - Mensual.xlsx
+++ b/12/4/Precios 1948 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="897">
   <si>
     <t>Serie</t>
   </si>
@@ -2702,6 +2702,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -3059,7 +3062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K886"/>
+  <dimension ref="A1:K887"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21559,6 +21562,41 @@
         <v>129.243</v>
       </c>
     </row>
+    <row r="887" spans="1:11">
+      <c r="A887" t="s">
+        <v>896</v>
+      </c>
+      <c r="B887">
+        <v>636.326</v>
+      </c>
+      <c r="C887">
+        <v>1776.61</v>
+      </c>
+      <c r="D887">
+        <v>23.392</v>
+      </c>
+      <c r="E887">
+        <v>4.435</v>
+      </c>
+      <c r="F887">
+        <v>245.37</v>
+      </c>
+      <c r="G887">
+        <v>5.478</v>
+      </c>
+      <c r="H887">
+        <v>598.096</v>
+      </c>
+      <c r="I887">
+        <v>83.65000000000001</v>
+      </c>
+      <c r="J887">
+        <v>81.31999999999999</v>
+      </c>
+      <c r="K887">
+        <v>144.784</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
